--- a/Assets/Dialogues/LaRiscrittora/Ore dedicate.xlsx
+++ b/Assets/Dialogues/LaRiscrittora/Ore dedicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\ProgettiUnity\LaRiscrittora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Dialogues\LaRiscrittora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0B2CD1-895D-4851-B6DC-B0C30A2CDF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D89D6D-5294-4525-B576-EAFAF69D37EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Data</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Unity con Mattia, spiegato debug</t>
+  </si>
+  <si>
+    <t>Unity e Ink</t>
+  </si>
+  <si>
+    <t>Accorpati i progetti</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -205,6 +211,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -485,23 +492,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -521,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45637</v>
       </c>
@@ -538,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45637</v>
       </c>
@@ -558,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45645</v>
       </c>
@@ -576,10 +583,10 @@
       </c>
       <c r="F4" s="7">
         <f>SUM(D:D)</f>
-        <v>0.78125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -593,7 +600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45646</v>
       </c>
@@ -610,7 +617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45647</v>
       </c>
@@ -627,12 +634,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -643,7 +650,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -656,6 +663,40 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45648</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Dialogues/LaRiscrittora/Ore dedicate.xlsx
+++ b/Assets/Dialogues/LaRiscrittora/Ore dedicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgettiVideogiochi\ProgettiUnity\LaRiscrittora_Prototipo\Assets\Dialogues\LaRiscrittora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D89D6D-5294-4525-B576-EAFAF69D37EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD29EB-2BF4-4C72-947A-304A43D23F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Data</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Accorpati i progetti</t>
+  </si>
+  <si>
+    <t>Funzioni di cambio luogo + background base</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -211,7 +214,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -492,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +585,7 @@
       </c>
       <c r="F4" s="7">
         <f>SUM(D:D)</f>
-        <v>0.90625</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -695,8 +697,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="8"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
